--- a/TestData/SampleExcel.xlsx
+++ b/TestData/SampleExcel.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12780" windowHeight="3000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="loginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>admin@email.com</t>
   </si>
   <si>
     <t>admin@123</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -95,9 +95,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -395,36 +394,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/SampleExcel.xlsx
+++ b/TestData/SampleExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>admin@email.com</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>abc@email.com</t>
+  </si>
+  <si>
+    <t>abc@123</t>
   </si>
 </sst>
 </file>
@@ -95,10 +101,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -394,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Q1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,10 +429,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
